--- a/hw2/HW2_list_unique_protections_FSTEC of Russia_vs_CIS_&_NIST.xlsx
+++ b/hw2/HW2_list_unique_protections_FSTEC of Russia_vs_CIS_&_NIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\lesson28_IS\L4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\lesson28_IS\HW\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E4F2F-D4AC-4408-8385-F34AF36F8C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C8A75-D847-4225-A4F0-34B2E5B5D1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="285" windowWidth="27975" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="435">
   <si>
     <t>количество баллов</t>
   </si>
@@ -1106,9 +1106,6 @@
   </si>
   <si>
     <t>Определение перечня действий возможных внутренних нарушителей, связанных с доступом к информационным активам конфиденциальной информации, подвергаемых мониторингу и анализу для цели выявления потенциальных утечек информации. При этом рекомендуется подвергать мониторингу и анализу;_x000D_</t>
-  </si>
-  <si>
-    <t>наименование меры защиты (ФСТЭК России)</t>
   </si>
   <si>
     <t>код</t>
@@ -1232,8 +1229,77 @@
     <t>Require all externally-exposed enterprise or third-party applications to enforce MFA, where supported. Enforcing MFA through a directory service or SSO provider is a satisfactory implementation of this Safeguard.</t>
   </si>
   <si>
+    <t>Encrypt sensitive data in transit. Example implementations can include, Transport Layer Security (TLS) and Open Secure Shell (OpenSSH).</t>
+  </si>
+  <si>
+    <t>Establish and maintain an accurate, detailed, and up-to-date inventory of all enterprise assets with the potential to store or process data, to include: end-user devices (including portable and mobile), network devices, non-computing/IoT devices, and servers. Ensure the inventory records the network address (if static), hardware address, machine name, enterprise asset owner, department for each asset, and whether the asset has been approved to connect to the network. For mobile end-user devices, MDM type tools can support this process, where appropriate. This inventory includes assets connected to the infrastructure physically, virtually, remotely, and those within cloud environments. Additionally, it includes assets that are regularly connected to the enterprise’s network infrastructure, even if they are not under control of the enterprise. Review and update the inventory of all enterprise assets bi-annually, or more frequently.</t>
+  </si>
+  <si>
+    <t>1.1 Establish and Maintain Detailed Enterprise Asset Inventory</t>
+  </si>
+  <si>
+    <t>4.5 Implement and Manage a Firewall on End-User Devices</t>
+  </si>
+  <si>
+    <t>Implement and manage a host-based firewall or port-filtering tool on end-user devices, with a default-deny rule that drops all traffic except those services and ports that are explicitly allowed.</t>
+  </si>
+  <si>
+    <t>4.2 Establish and Maintain a Secure Configuration Process for Network Infrastructure</t>
+  </si>
+  <si>
+    <t>Establish and maintain a secure configuration process for network devices. Review and update documentation annually, or when significant enterprise changes occur that could impact this Safeguard.</t>
+  </si>
+  <si>
+    <t>4.4 Implement and Manage a Firewall on Servers</t>
+  </si>
+  <si>
+    <t>Implement and manage a firewall on servers, where supported. Example implementations include a virtual firewall, operating system firewall, or a third-party firewall agent.</t>
+  </si>
+  <si>
+    <t>Ensure network infrastructure is kept up-to-date. Example implementations include running the latest stable release of software and/or using currently supported network-as-a-service (NaaS) offerings. Review software versions monthly, or more frequently, to verify software support.</t>
+  </si>
+  <si>
+    <t>12.1 Ensure Network Infrastructure is Up-to-Date</t>
+  </si>
+  <si>
+    <t>12.8 Establish and Maintain Dedicated Computing Resources for All Administrative Work</t>
+  </si>
+  <si>
+    <t>Establish and maintain dedicated computing resources, either physically or logically separated, for all administrative tasks or tasks requiring administrative access. The computing resources should be segmented from the enterprise's primary network and not be allowed internet access.</t>
+  </si>
+  <si>
+    <t>13.5 Manage Access Control for Remote Assets</t>
+  </si>
+  <si>
+    <t>Manage access control for assets remotely connecting to enterprise resources. Determine amount of access to enterprise resources based on: up-to-date anti-malware software installed; configuration compliance with the enterprise’s secure configuration process; and ensuring the operating system and applications are up-to-date.</t>
+  </si>
+  <si>
+    <t>9.3 Maintain and Enforce Network-Based URL Filters</t>
+  </si>
+  <si>
+    <t>Enforce and update network-based URL filters to limit an enterprise asset from connecting to potentially malicious or unapproved websites. Example implementations include category-based filtering, reputation-based filtering, or through the use of block lists. Enforce filters for all enterprise assets.</t>
+  </si>
+  <si>
+    <t>3.3 Configure Data Access Control Lists</t>
+  </si>
+  <si>
+    <t>Configure data access control lists based on a user’s need to know. Apply data access control lists, also known as access permissions, to local and remote file systems, databases, and applications.</t>
+  </si>
+  <si>
+    <t>ФСТЭК</t>
+  </si>
+  <si>
+    <t>наименование меры защиты</t>
+  </si>
+  <si>
+    <t>код / наименование меры защиты</t>
+  </si>
+  <si>
+    <t>пояснение меры</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">наименование меры защиты (CIS Control </t>
+      <t xml:space="preserve">CIS Control </t>
     </r>
     <r>
       <rPr>
@@ -1247,73 +1313,39 @@
       </rPr>
       <t>v.8: v7.1 &gt; v8</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Encrypt sensitive data in transit. Example implementations can include, Transport Layer Security (TLS) and Open Secure Shell (OpenSSH).</t>
-  </si>
-  <si>
-    <t>Establish and maintain an accurate, detailed, and up-to-date inventory of all enterprise assets with the potential to store or process data, to include: end-user devices (including portable and mobile), network devices, non-computing/IoT devices, and servers. Ensure the inventory records the network address (if static), hardware address, machine name, enterprise asset owner, department for each asset, and whether the asset has been approved to connect to the network. For mobile end-user devices, MDM type tools can support this process, where appropriate. This inventory includes assets connected to the infrastructure physically, virtually, remotely, and those within cloud environments. Additionally, it includes assets that are regularly connected to the enterprise’s network infrastructure, even if they are not under control of the enterprise. Review and update the inventory of all enterprise assets bi-annually, or more frequently.</t>
-  </si>
-  <si>
-    <t>1.1 Establish and Maintain Detailed Enterprise Asset Inventory</t>
-  </si>
-  <si>
-    <t>4.5 Implement and Manage a Firewall on End-User Devices</t>
-  </si>
-  <si>
-    <t>Implement and manage a host-based firewall or port-filtering tool on end-user devices, with a default-deny rule that drops all traffic except those services and ports that are explicitly allowed.</t>
-  </si>
-  <si>
-    <t>4.2 Establish and Maintain a Secure Configuration Process for Network Infrastructure</t>
-  </si>
-  <si>
-    <t>Establish and maintain a secure configuration process for network devices. Review and update documentation annually, or when significant enterprise changes occur that could impact this Safeguard.</t>
-  </si>
-  <si>
-    <t>4.4 Implement and Manage a Firewall on Servers</t>
-  </si>
-  <si>
-    <t>Implement and manage a firewall on servers, where supported. Example implementations include a virtual firewall, operating system firewall, or a third-party firewall agent.</t>
-  </si>
-  <si>
-    <t>Ensure network infrastructure is kept up-to-date. Example implementations include running the latest stable release of software and/or using currently supported network-as-a-service (NaaS) offerings. Review software versions monthly, or more frequently, to verify software support.</t>
-  </si>
-  <si>
-    <t>12.1 Ensure Network Infrastructure is Up-to-Date</t>
-  </si>
-  <si>
-    <t>12.8 Establish and Maintain Dedicated Computing Resources for All Administrative Work</t>
-  </si>
-  <si>
-    <t>Establish and maintain dedicated computing resources, either physically or logically separated, for all administrative tasks or tasks requiring administrative access. The computing resources should be segmented from the enterprise's primary network and not be allowed internet access.</t>
-  </si>
-  <si>
-    <t>13.5 Manage Access Control for Remote Assets</t>
-  </si>
-  <si>
-    <t>Manage access control for assets remotely connecting to enterprise resources. Determine amount of access to enterprise resources based on: up-to-date anti-malware software installed; configuration compliance with the enterprise’s secure configuration process; and ensuring the operating system and applications are up-to-date.</t>
-  </si>
-  <si>
-    <t>9.3 Maintain and Enforce Network-Based URL Filters</t>
-  </si>
-  <si>
-    <t>Enforce and update network-based URL filters to limit an enterprise asset from connecting to potentially malicious or unapproved websites. Example implementations include category-based filtering, reputation-based filtering, or through the use of block lists. Enforce filters for all enterprise assets.</t>
-  </si>
-  <si>
-    <t>3.3 Configure Data Access Control Lists</t>
-  </si>
-  <si>
-    <t>Configure data access control lists based on a user’s need to know. Apply data access control lists, also known as access permissions, to local and remote file systems, databases, and applications.</t>
+  </si>
+  <si>
+    <t>NIST_csf2</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>ID.RA-01: Vulnerabilities in assets are identified, validated, and recorded</t>
+  </si>
+  <si>
+    <t>PR.DS-02: The confidentiality, integrity, and availability of data-in-transit are protected</t>
+  </si>
+  <si>
+    <t>GV.RM-04: Strategic direction that describes appropriate risk response options is established and communicated</t>
+  </si>
+  <si>
+    <t>PR.IR-01: Networks and environments are protected from unauthorized logical access and usage</t>
+  </si>
+  <si>
+    <t>GV.SC-04: Suppliers are known and prioritized by criticality</t>
+  </si>
+  <si>
+    <t>PR.AA-01: Identities and credentials for authorized users, services, and hardware are managed by the organization</t>
+  </si>
+  <si>
+    <t>PR.AA-03: Users, services, and hardware are authenticated</t>
+  </si>
+  <si>
+    <t>PR.AA-05: Access permissions, entitlements, and authorizations are defined in a policy, managed, enforced, and reviewed, and incorporate the principles of least privilege and separation of duties</t>
+  </si>
+  <si>
+    <t>PR.AA-06: Physical access to assets is managed, monitored, and enforced commensurate with risk</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1365,76 +1397,366 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,2400 +2060,2611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="99.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="19" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="46">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="50">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="46">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="C14" s="51">
+        <v>15</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="55">
+        <v>15</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="55">
+        <v>15</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="51">
+        <v>15</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="50">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="51">
+        <v>14</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7">
+        <v>14</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13</v>
+      </c>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13</v>
+      </c>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="10">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
+        <v>13</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>13</v>
+      </c>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12</v>
+      </c>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>12</v>
+      </c>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
+        <v>12</v>
+      </c>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1">
+        <v>12</v>
+      </c>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12</v>
+      </c>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1">
+        <v>12</v>
+      </c>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12</v>
+      </c>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12</v>
+      </c>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12</v>
+      </c>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12</v>
+      </c>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12</v>
+      </c>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1">
+        <v>12</v>
+      </c>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11</v>
+      </c>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11</v>
+      </c>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11</v>
+      </c>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="1">
+        <v>9</v>
+      </c>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9</v>
+      </c>
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9</v>
+      </c>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8</v>
+      </c>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="1">
+        <v>8</v>
+      </c>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8</v>
+      </c>
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+      <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1">
+        <v>8</v>
+      </c>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1">
+        <v>8</v>
+      </c>
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72" s="19"/>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="F73" s="19"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8</v>
+      </c>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="1">
+        <v>8</v>
+      </c>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="1">
+        <v>8</v>
+      </c>
+      <c r="F80" s="19"/>
+    </row>
+    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8</v>
+      </c>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8</v>
+      </c>
+      <c r="F82" s="19"/>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8</v>
+      </c>
+      <c r="F83" s="19"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8</v>
+      </c>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8</v>
+      </c>
+      <c r="F85" s="19"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="1">
+        <v>8</v>
+      </c>
+      <c r="F86" s="19"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1">
+        <v>8</v>
+      </c>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="1">
+        <v>8</v>
+      </c>
+      <c r="F88" s="19"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8</v>
+      </c>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8</v>
+      </c>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="1">
+        <v>8</v>
+      </c>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="1">
+        <v>8</v>
+      </c>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="1">
+        <v>8</v>
+      </c>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="1">
+        <v>8</v>
+      </c>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="1">
+        <v>8</v>
+      </c>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="1">
+        <v>8</v>
+      </c>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="1">
+        <v>8</v>
+      </c>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="1">
+        <v>8</v>
+      </c>
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8</v>
+      </c>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="1">
+        <v>8</v>
+      </c>
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="1">
+        <v>8</v>
+      </c>
+      <c r="F101" s="19"/>
+    </row>
+    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="1">
+        <v>8</v>
+      </c>
+      <c r="F102" s="19"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="1">
+        <v>8</v>
+      </c>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="1">
+        <v>8</v>
+      </c>
+      <c r="F104" s="19"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="1">
+        <v>8</v>
+      </c>
+      <c r="F105" s="19"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8</v>
+      </c>
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="1">
+        <v>6</v>
+      </c>
+      <c r="F107" s="19"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6</v>
+      </c>
+      <c r="F108" s="19"/>
+    </row>
+    <row r="109" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6</v>
+      </c>
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="1">
+        <v>6</v>
+      </c>
+      <c r="F111" s="19"/>
+    </row>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="1">
+        <v>6</v>
+      </c>
+      <c r="F112" s="19"/>
+    </row>
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" s="1">
+        <v>6</v>
+      </c>
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5</v>
+      </c>
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5</v>
+      </c>
+      <c r="F116" s="19"/>
+    </row>
+    <row r="117" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5</v>
+      </c>
+      <c r="F117" s="19"/>
+    </row>
+    <row r="118" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="F118" s="19"/>
+    </row>
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="F119" s="19"/>
+    </row>
+    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C13" s="3">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C23" s="3">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F120" s="19"/>
+    </row>
+    <row r="121" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C90" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>144</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>146</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>153</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>155</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C103" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C105" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>161</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C107" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C108" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>169</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>175</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>177</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>183</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C117" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>185</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C118" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>187</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C119" s="10">
+      <c r="B121" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C120" s="10">
+      <c r="F121" s="19"/>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>190</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C121" s="10">
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>192</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C122" s="10">
+      <c r="F123" s="19"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>194</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C123" s="10">
+      <c r="F124" s="19"/>
+    </row>
+    <row r="125" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>196</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" s="10">
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>198</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C125" s="10">
+      <c r="F126" s="19"/>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C126" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>202</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B128" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C127" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>204</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C128" s="10">
+      <c r="C128" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>206</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B130" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C130" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>208</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B131" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C131" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>210</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B132" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C132" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B133" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C133" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>214</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B134" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C134" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>216</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B135" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C135" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B136" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C136" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>220</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C137" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B138" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C138" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>224</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B139" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C139" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>226</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B140" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C140" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>228</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B141" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C141" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>230</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B142" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C142" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>232</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B143" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C143" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>234</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B144" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C144" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>236</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B145" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C145" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>238</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B146" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C146" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>240</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B147" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C147" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>242</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B148" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C148" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>244</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B149" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C149" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>246</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B150" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C150" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>248</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B151" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C151" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>250</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B152" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C151" s="10">
+      <c r="C152" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>54</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B153" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C153" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B154" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C154" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>255</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B155" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C155" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>257</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B156" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C156" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>259</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B157" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C157" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>261</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B158" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C158" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>263</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B159" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C159" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B160" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C160" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>267</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B161" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C161" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>46</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B162" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C162" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="163" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>270</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B163" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C163" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="164" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>52</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B164" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C164" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="165" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>273</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B165" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C165" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="166" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>275</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B166" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C166" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>277</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B167" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C167" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>279</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B168" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C168" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B169" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C169" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>282</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B170" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C170" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>150</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B171" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C171" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>285</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B172" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C172" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>287</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B173" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C173" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>289</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B174" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C174" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="175" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>291</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B175" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C175" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="F175" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>293</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B176" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C175" s="10">
+      <c r="C176" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="177" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>295</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B177" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C176" s="10">
+      <c r="C177" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>297</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B178" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C178" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>299</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B179" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C178" s="10">
+      <c r="C179" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="180" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B180" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C179" s="10">
+      <c r="C180" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="181" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>302</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B181" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C181" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>304</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B182" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C181" s="10">
+      <c r="C182" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="183" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>306</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B183" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C182" s="10">
+      <c r="C183" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>308</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B184" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C183" s="10">
+      <c r="C184" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>310</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B185" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C184" s="10">
+      <c r="C185" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>312</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B186" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C185" s="10">
+      <c r="C186" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="187" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>314</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B187" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C186" s="10">
+      <c r="C187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="188" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>282</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B188" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C187" s="10">
+      <c r="C188" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="189" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>317</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B189" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="10">
+      <c r="C189" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B190" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C189" s="10">
+      <c r="C190" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="191" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>321</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B191" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C190" s="10">
+      <c r="C191" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="192" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>323</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B192" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C191" s="10">
+      <c r="C192" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="193" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>325</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B193" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C192" s="10">
+      <c r="C193" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="194" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>327</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B194" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C193" s="10">
+      <c r="C194" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="195" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>329</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B195" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C194" s="10">
+      <c r="C195" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="196" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>331</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B196" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C195" s="10">
+      <c r="C196" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="197" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>333</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B197" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C196" s="10">
+      <c r="C197" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="198" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>335</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B198" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C197" s="10">
+      <c r="C198" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="199" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>337</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B199" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C198" s="10">
+      <c r="C199" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="200" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>339</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B200" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C199" s="10">
+      <c r="C200" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="201" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>270</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B201" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C200" s="10">
+      <c r="C201" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>342</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B202" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C201" s="10">
+      <c r="C202" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>344</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B203" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C202" s="10">
+      <c r="C203" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="204" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>346</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B204" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C203" s="10">
+      <c r="C204" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="205" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>348</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B205" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C204" s="10">
+      <c r="C205" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="206" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>350</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B206" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C205" s="10">
+      <c r="C206" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="207" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>352</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B207" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C206" s="10">
+      <c r="C207" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="208" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>354</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B208" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C207" s="10">
+      <c r="C208" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="209" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>356</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B209" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C208" s="10">
+      <c r="C209" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="210" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>358</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B210" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C209" s="10">
+      <c r="C210" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="211" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>360</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B211" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C210" s="10">
+      <c r="C211" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
+  <mergeCells count="26">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>